--- a/Datasets/compiled.xlsx
+++ b/Datasets/compiled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjun\OneDrive\Desktop\Documents\ANU\COMP4550\vaping_effect\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17FB57E-B5B2-4BA8-A352-91D01FE1F588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEB1269-9064-4BF9-815B-1BF632C2F091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QALY_n=50" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,11 @@
     <sheet name="HSC_n=200" sheetId="6" r:id="rId12"/>
     <sheet name="HSC_n=300" sheetId="10" r:id="rId13"/>
     <sheet name="HSC_n=500" sheetId="7" r:id="rId14"/>
-    <sheet name="HSC_Over_n" sheetId="14" r:id="rId15"/>
-    <sheet name="HSC_Avg" sheetId="12" r:id="rId16"/>
-    <sheet name="HSC_Bootstrap_Avg" sheetId="16" r:id="rId17"/>
+    <sheet name="HSC_n=500_2" sheetId="18" r:id="rId15"/>
+    <sheet name="HSC_Over_n" sheetId="14" r:id="rId16"/>
+    <sheet name="HSC_Avg" sheetId="12" r:id="rId17"/>
+    <sheet name="HSC_Avg_2" sheetId="19" r:id="rId18"/>
+    <sheet name="HSC_Bootstrap_Avg" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="31">
   <si>
     <t>Linear Regression</t>
   </si>
@@ -121,6 +123,30 @@
   </si>
   <si>
     <t>SMO</t>
+  </si>
+  <si>
+    <t>Ensemble: 0.34653</t>
+  </si>
+  <si>
+    <t>Ensemble: 0.22027</t>
+  </si>
+  <si>
+    <t>SD, NB</t>
+  </si>
+  <si>
+    <t>SD, B</t>
+  </si>
+  <si>
+    <t>KNN, NB</t>
+  </si>
+  <si>
+    <t>KNN, B</t>
+  </si>
+  <si>
+    <t>SMO, NB</t>
+  </si>
+  <si>
+    <t>SMO, B</t>
   </si>
 </sst>
 </file>
@@ -488,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,7 +578,7 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>0.35316136282193739</v>
       </c>
       <c r="C3">
@@ -573,7 +599,7 @@
       <c r="H3" s="4">
         <v>0.37941289402471018</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>0.66710242860509583</v>
       </c>
     </row>
@@ -584,7 +610,7 @@
       <c r="B4">
         <v>0.54652997775442347</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>0.37420801159247302</v>
       </c>
       <c r="D4">
@@ -636,7 +662,7 @@
       <c r="F6">
         <v>1.880639393025952</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>0.96248870213536164</v>
       </c>
     </row>
@@ -1354,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAB648C-36B9-43C7-B6FA-B1E73ECDE319}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1508,17 +1534,140 @@
         <v>0.278073624171713</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB05DEF4-543A-4213-AB76-A58235C3D43B}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0.30523502493147581</v>
+      </c>
+      <c r="C2">
+        <v>0.2813701170575198</v>
+      </c>
+      <c r="D2">
+        <v>0.31042135345572058</v>
+      </c>
+      <c r="E2">
+        <v>0.28574172096099121</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.26847181185003138</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.22704948373320669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.66554627197525118</v>
+      </c>
+      <c r="C3">
+        <v>0.549105607925926</v>
+      </c>
+      <c r="D3">
+        <v>0.27919106512868991</v>
+      </c>
+      <c r="E3">
+        <v>0.41135632675096401</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.2398796406549645</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.23713540389309801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.6955026151207253</v>
+      </c>
+      <c r="D4">
+        <v>4.0754203183518873</v>
+      </c>
+      <c r="F4">
+        <v>4.3339904025406391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.27712098907204452</v>
+      </c>
+      <c r="D5">
+        <v>0.23916131570897761</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.278073624171713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E131A0-747D-4D78-84C8-44549DD858C6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1584,12 +1733,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7785A03-178E-4906-BE8E-B04C59AD428E}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1777,7 +1926,141 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3605483-3FB3-4E69-81A7-84B664CD8804}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE('HSC_n=50'!D3,'HSC_n=100'!D3,'HSC_n=200'!D3,'HSC_n=300'!D3,'HSC_n=500'!D3)</f>
+        <v>2.1589858427981694</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE('HSC_n=50'!E3,'HSC_n=100'!E3,'HSC_n=200'!E3,'HSC_n=300'!E3,'HSC_n=500'!E3)</f>
+        <v>2.2998401387554663</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE('HSC_n=50'!F3,'HSC_n=100'!F3,'HSC_n=200'!F3,'HSC_n=300'!F3,'HSC_n=500'!F3)</f>
+        <v>2.4097718288974224</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE('HSC_n=50'!G3,'HSC_n=100'!G3,'HSC_n=200'!G3,'HSC_n=300'!G3,'HSC_n=500'!G3)</f>
+        <v>4.6294099521555907</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE('HSC_n=50'!H3,'HSC_n=100'!H3,'HSC_n=200'!H3,'HSC_n=300'!H3,'HSC_n=500'!H3)</f>
+        <v>0.30032147965499856</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE('HSC_n=50'!I3,'HSC_n=100'!I3,'HSC_n=200'!I3,'HSC_n=300'!I3,'HSC_n=500'!I3)</f>
+        <v>0.32991577966825825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE('HSC_n=50'!D4,'HSC_n=100'!D4,'HSC_n=200'!D4,'HSC_n=300'!D4,'HSC_n=500'!D4)</f>
+        <v>1.3886913972368617</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE('HSC_n=50'!E4,'HSC_n=100'!E4,'HSC_n=200'!E4,'HSC_n=300'!E4,'HSC_n=500'!E4)</f>
+        <v>1.2704611407120026</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE('HSC_n=50'!F4,'HSC_n=100'!F4,'HSC_n=200'!F4,'HSC_n=300'!F4,'HSC_n=500'!F4)</f>
+        <v>2.4757804087094639</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE('HSC_n=50'!G4,'HSC_n=100'!G4,'HSC_n=200'!G4,'HSC_n=300'!G4,'HSC_n=500'!G4)</f>
+        <v>1.8384153689939708</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE('HSC_n=50'!H4,'HSC_n=100'!H4,'HSC_n=200'!H4,'HSC_n=300'!H4,'HSC_n=500'!H4)</f>
+        <v>0.2848005170017115</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE('HSC_n=50'!I4,'HSC_n=100'!I4,'HSC_n=200'!I4,'HSC_n=300'!I4,'HSC_n=500'!I4)</f>
+        <v>0.28025320502611795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE('HSC_n=50'!D5,'HSC_n=100'!D5,'HSC_n=200'!D5,'HSC_n=300'!D5,'HSC_n=500'!D5)</f>
+        <v>6.2537383313503696</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE('HSC_n=50'!F5,'HSC_n=100'!F5,'HSC_n=200'!F5,'HSC_n=300'!F5,'HSC_n=500'!F5)</f>
+        <v>4.4481931596842825</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE('HSC_n=50'!G5,'HSC_n=100'!G5,'HSC_n=200'!G5,'HSC_n=300'!G5,'HSC_n=500'!G5)</f>
+        <v>4.6250690305359896</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE('HSC_n=50'!H5,'HSC_n=100'!H5,'HSC_n=200'!H5,'HSC_n=300'!H5,'HSC_n=500'!H5)</f>
+        <v>4.1989130149004819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE('HSC_n=50'!D6,'HSC_n=100'!D6,'HSC_n=200'!D6,'HSC_n=300'!D6,'HSC_n=500'!D6)</f>
+        <v>2.103670530161021</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE('HSC_n=50'!F6,'HSC_n=100'!F6,'HSC_n=200'!F6,'HSC_n=300'!F6,'HSC_n=500'!F6)</f>
+        <v>2.758957694147361</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE('HSC_n=50'!H6,'HSC_n=100'!H6,'HSC_n=200'!H6,'HSC_n=300'!H6,'HSC_n=500'!H6)</f>
+        <v>0.31872364230531758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DD8463-9705-43C4-8494-0A2257B42BF1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1876,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7429A1E-4159-424E-8928-33176E22F2C3}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1940,7 +2223,7 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>0.35316136282193739</v>
       </c>
       <c r="C3">
@@ -1961,7 +2244,7 @@
       <c r="H3" s="4">
         <v>0.36990103616013642</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>0.47769259921025181</v>
       </c>
     </row>
@@ -1972,7 +2255,7 @@
       <c r="B4">
         <v>0.54652997775442347</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>0.37420801159247302</v>
       </c>
       <c r="D4">
@@ -2024,7 +2307,7 @@
       <c r="F6">
         <v>1.3203804720312129</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>0.40649236848233539</v>
       </c>
     </row>
@@ -2357,15 +2640,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1FBABC-8048-4910-A7BA-AF464271BB24}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.54296875" bestFit="1" customWidth="1"/>
@@ -2423,7 +2706,7 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>0.35316136282193739</v>
       </c>
       <c r="C3">
@@ -2441,7 +2724,7 @@
       <c r="G3">
         <v>1.0954163396239951</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>0.35274722040021861</v>
       </c>
       <c r="I3" s="4">
@@ -2455,7 +2738,7 @@
       <c r="B4">
         <v>0.54652997775442347</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>0.37420801159247302</v>
       </c>
       <c r="D4">
@@ -2507,12 +2790,18 @@
       <c r="F6">
         <v>1.122708696248766</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>0.35189784971091492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2521,7 +2810,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2780,7 +3069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAA632D-7AF9-4BD4-B889-F0B2E838ED22}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
